--- a/docs/xcom_perks/WOTC APA Class Pack.xlsx
+++ b/docs/xcom_perks/WOTC APA Class Pack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5996D102-BE58-4A06-8700-733ADE014C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B8D8E3-C523-4876-BE7C-B7E0967B3D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assault Infantry" sheetId="1" r:id="rId1"/>
@@ -3937,72 +3937,29 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4012,20 +3969,63 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4402,17 +4402,17 @@
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -4431,11 +4431,11 @@
     </row>
     <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -4454,15 +4454,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
@@ -4489,17 +4489,17 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -4518,24 +4518,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="82" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="67"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
@@ -4563,22 +4563,22 @@
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="65"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="19" t="s">
         <v>19</v>
       </c>
@@ -4624,21 +4624,21 @@
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="90"/>
+      <c r="D9" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="67"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="16" t="s">
         <v>27</v>
       </c>
@@ -4650,26 +4650,26 @@
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:27" ht="72" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="68" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="25" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="25" t="s">
         <v>35</v>
       </c>
@@ -4686,21 +4686,21 @@
       <c r="B11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="87"/>
       <c r="J11" s="16" t="s">
         <v>43</v>
       </c>
@@ -4717,21 +4717,21 @@
       <c r="B12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="68" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="25" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="25" t="s">
         <v>51</v>
       </c>
@@ -4748,21 +4748,21 @@
       <c r="B13" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="16" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="16" t="s">
         <v>59</v>
       </c>
@@ -4779,21 +4779,21 @@
       <c r="B14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="25" t="s">
         <v>67</v>
       </c>
@@ -4807,17 +4807,17 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -4836,23 +4836,23 @@
     </row>
     <row r="16" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4886,8 +4886,8 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="30"/>
       <c r="E18" s="21"/>
       <c r="F18" s="16" t="s">
@@ -4913,8 +4913,8 @@
     </row>
     <row r="19" spans="1:27" ht="120" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="25" t="s">
@@ -4938,8 +4938,8 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="30"/>
       <c r="E20" s="21"/>
       <c r="F20" s="16" t="s">
@@ -4957,8 +4957,8 @@
     </row>
     <row r="21" spans="1:27" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
       <c r="F21" s="25" t="s">
@@ -4976,8 +4976,8 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="30"/>
       <c r="E22" s="21"/>
       <c r="F22" s="33"/>
@@ -4991,8 +4991,8 @@
     </row>
     <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
       <c r="F23" s="34"/>
@@ -5006,17 +5006,17 @@
     </row>
     <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
       <c r="M24" s="15"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
@@ -5038,20 +5038,20 @@
         <v>88</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="36" t="s">
         <v>90</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="71"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="36" t="s">
         <v>93</v>
       </c>
@@ -5096,20 +5096,20 @@
         <v>96</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="92"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="91" t="s">
+      <c r="H27" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="92"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="40" t="s">
         <v>15</v>
       </c>
@@ -5125,20 +5125,20 @@
         <v>98</v>
       </c>
       <c r="C28" s="38"/>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="94"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="43" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="94"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="43" t="s">
         <v>100</v>
       </c>
@@ -5154,20 +5154,20 @@
         <v>101</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="94"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="93" t="s">
+      <c r="H29" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="94"/>
+      <c r="I29" s="70"/>
       <c r="J29" s="45" t="s">
         <v>15</v>
       </c>
@@ -5183,20 +5183,20 @@
         <v>103</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="94"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="94"/>
+      <c r="I30" s="70"/>
       <c r="J30" s="45" t="s">
         <v>15</v>
       </c>
@@ -5212,20 +5212,20 @@
         <v>104</v>
       </c>
       <c r="C31" s="38"/>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="94"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="95" t="s">
+      <c r="H31" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="94"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="43" t="s">
         <v>97</v>
       </c>
@@ -5241,20 +5241,20 @@
         <v>105</v>
       </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="97"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="98" t="s">
+      <c r="H32" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="97"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="49" t="s">
         <v>97</v>
       </c>
@@ -5267,17 +5267,17 @@
     </row>
     <row r="33" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="66"/>
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -5296,6 +5296,39 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="B33:L33"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -5309,39 +5342,6 @@
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5382,17 +5382,17 @@
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -5411,11 +5411,11 @@
     </row>
     <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -5434,15 +5434,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
@@ -5469,17 +5469,17 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -5498,24 +5498,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="82" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="17" t="s">
         <v>111</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="67"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="17" t="s">
         <v>114</v>
       </c>
@@ -5543,22 +5543,22 @@
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="65"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="19" t="s">
         <v>18</v>
       </c>
@@ -5604,21 +5604,21 @@
       <c r="B9" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="90"/>
+      <c r="D9" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="16" t="s">
         <v>120</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="67"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="16" t="s">
         <v>123</v>
       </c>
@@ -5635,21 +5635,21 @@
       <c r="B10" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="68" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="25" t="s">
         <v>128</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="25" t="s">
         <v>131</v>
       </c>
@@ -5666,21 +5666,21 @@
       <c r="B11" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="16" t="s">
         <v>136</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="87"/>
       <c r="J11" s="16" t="s">
         <v>139</v>
       </c>
@@ -5697,21 +5697,21 @@
       <c r="B12" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="68" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="25" t="s">
         <v>144</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="25" t="s">
         <v>147</v>
       </c>
@@ -5728,21 +5728,21 @@
       <c r="B13" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="16" t="s">
         <v>152</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="16" t="s">
         <v>155</v>
       </c>
@@ -5759,21 +5759,21 @@
       <c r="B14" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="25" t="s">
         <v>160</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="25" t="s">
         <v>163</v>
       </c>
@@ -5787,17 +5787,17 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -5816,23 +5816,23 @@
     </row>
     <row r="16" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5866,10 +5866,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="87"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="52" t="s">
         <v>167</v>
       </c>
@@ -5897,8 +5897,8 @@
     </row>
     <row r="19" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="53" t="s">
         <v>173</v>
       </c>
@@ -5918,8 +5918,8 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="54"/>
       <c r="E20" s="21"/>
       <c r="F20" s="16" t="s">
@@ -5941,8 +5941,8 @@
     </row>
     <row r="21" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="57"/>
       <c r="E21" s="32"/>
       <c r="F21" s="25" t="s">
@@ -5964,8 +5964,8 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="30"/>
       <c r="E22" s="21"/>
       <c r="F22" s="58"/>
@@ -5979,8 +5979,8 @@
     </row>
     <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
       <c r="F23" s="34"/>
@@ -5993,37 +5993,37 @@
       <c r="M23" s="60"/>
     </row>
     <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="77"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="36" t="s">
         <v>185</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="I25" s="71"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="36" t="s">
         <v>188</v>
       </c>
@@ -6052,20 +6052,20 @@
         <v>191</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="92"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="91" t="s">
+      <c r="H27" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="92"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="39" t="s">
         <v>97</v>
       </c>
@@ -6081,20 +6081,20 @@
         <v>192</v>
       </c>
       <c r="C28" s="38"/>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="94"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="94"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="43" t="s">
         <v>97</v>
       </c>
@@ -6110,20 +6110,20 @@
         <v>193</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="94"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="43" t="s">
         <v>99</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="95" t="s">
+      <c r="H29" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="94"/>
+      <c r="I29" s="70"/>
       <c r="J29" s="43" t="s">
         <v>97</v>
       </c>
@@ -6139,20 +6139,20 @@
         <v>194</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="100" t="s">
+      <c r="D30" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="94"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="95" t="s">
+      <c r="H30" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="94"/>
+      <c r="I30" s="70"/>
       <c r="J30" s="43" t="s">
         <v>97</v>
       </c>
@@ -6168,20 +6168,20 @@
         <v>104</v>
       </c>
       <c r="C31" s="38"/>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="94"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="95" t="s">
+      <c r="H31" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="94"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="43" t="s">
         <v>97</v>
       </c>
@@ -6197,20 +6197,20 @@
         <v>195</v>
       </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="97"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="103" t="s">
+      <c r="H32" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="97"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="50" t="s">
         <v>15</v>
       </c>
@@ -6223,17 +6223,17 @@
     </row>
     <row r="33" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="66"/>
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -6252,6 +6252,39 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="B33:L33"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -6265,39 +6298,6 @@
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6337,17 +6337,17 @@
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -6369,8 +6369,8 @@
       <c r="B3" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -6389,15 +6389,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
@@ -6424,17 +6424,17 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -6453,24 +6453,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="82" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="17" t="s">
         <v>201</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="I6" s="67"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="17" t="s">
         <v>204</v>
       </c>
@@ -6498,16 +6498,16 @@
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -6547,21 +6547,21 @@
       <c r="B9" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="90"/>
+      <c r="D9" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="16" t="s">
         <v>169</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="67"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="16" t="s">
         <v>170</v>
       </c>
@@ -6576,21 +6576,21 @@
     <row r="10" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="68" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="25" t="s">
         <v>212</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="25" t="s">
         <v>174</v>
       </c>
@@ -6607,21 +6607,21 @@
       <c r="B11" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="16" t="s">
         <v>217</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="87"/>
       <c r="J11" s="16" t="s">
         <v>220</v>
       </c>
@@ -6636,21 +6636,21 @@
     <row r="12" spans="1:27" ht="168" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="68" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="25" t="s">
         <v>224</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="25" t="s">
         <v>227</v>
       </c>
@@ -6667,21 +6667,21 @@
       <c r="B13" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="16" t="s">
         <v>232</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="16" t="s">
         <v>235</v>
       </c>
@@ -6696,21 +6696,21 @@
     <row r="14" spans="1:27" ht="108" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="25" t="s">
         <v>239</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="25" t="s">
         <v>242</v>
       </c>
@@ -6724,17 +6724,17 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -6753,23 +6753,23 @@
     </row>
     <row r="16" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6803,10 +6803,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="87"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="52" t="s">
         <v>246</v>
       </c>
@@ -6834,8 +6834,8 @@
     </row>
     <row r="19" spans="1:27" ht="84" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="53" t="s">
         <v>251</v>
       </c>
@@ -6863,8 +6863,8 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="54"/>
       <c r="E20" s="21"/>
       <c r="F20" s="56" t="s">
@@ -6880,8 +6880,8 @@
     </row>
     <row r="21" spans="1:27" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="57"/>
       <c r="E21" s="32"/>
       <c r="F21" s="25" t="s">
@@ -6897,8 +6897,8 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="30"/>
       <c r="E22" s="21"/>
       <c r="F22" s="58"/>
@@ -6912,8 +6912,8 @@
     </row>
     <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
       <c r="F23" s="34"/>
@@ -6926,37 +6926,37 @@
       <c r="M23" s="60"/>
     </row>
     <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="77"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="36" t="s">
         <v>259</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="I25" s="71"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="36" t="s">
         <v>262</v>
       </c>
@@ -6985,20 +6985,20 @@
         <v>191</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="92"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="91" t="s">
+      <c r="H27" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="92"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="39" t="s">
         <v>97</v>
       </c>
@@ -7014,20 +7014,20 @@
         <v>98</v>
       </c>
       <c r="C28" s="38"/>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="94"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="43" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="94"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="43" t="s">
         <v>100</v>
       </c>
@@ -7043,20 +7043,20 @@
         <v>101</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="94"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="93" t="s">
+      <c r="H29" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="94"/>
+      <c r="I29" s="70"/>
       <c r="J29" s="45" t="s">
         <v>15</v>
       </c>
@@ -7072,20 +7072,20 @@
         <v>103</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="94"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="94"/>
+      <c r="I30" s="70"/>
       <c r="J30" s="45" t="s">
         <v>15</v>
       </c>
@@ -7101,20 +7101,20 @@
         <v>104</v>
       </c>
       <c r="C31" s="38"/>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="94"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="95" t="s">
+      <c r="H31" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="94"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="43" t="s">
         <v>97</v>
       </c>
@@ -7130,20 +7130,20 @@
         <v>105</v>
       </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="97"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="98" t="s">
+      <c r="H32" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="97"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="49" t="s">
         <v>97</v>
       </c>
@@ -7156,17 +7156,17 @@
     </row>
     <row r="33" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="66"/>
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -7185,6 +7185,39 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="B33:L33"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -7198,39 +7231,6 @@
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7272,17 +7272,17 @@
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -7304,8 +7304,8 @@
       <c r="B3" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -7324,15 +7324,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="98" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
@@ -7359,17 +7359,17 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -7388,24 +7388,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="82" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="17" t="s">
         <v>270</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="86" t="s">
         <v>272</v>
       </c>
-      <c r="I6" s="67"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="17" t="s">
         <v>273</v>
       </c>
@@ -7433,22 +7433,22 @@
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="19" t="s">
         <v>276</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="I7" s="65"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="19" t="s">
         <v>279</v>
       </c>
@@ -7494,21 +7494,21 @@
       <c r="B9" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="90"/>
+      <c r="D9" s="93" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="16" t="s">
         <v>282</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="67"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="16" t="s">
         <v>285</v>
       </c>
@@ -7523,21 +7523,21 @@
     <row r="10" spans="1:27" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="68" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="25" t="s">
         <v>289</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="25" t="s">
         <v>292</v>
       </c>
@@ -7554,21 +7554,21 @@
       <c r="B11" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="16" t="s">
         <v>297</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="93" t="s">
         <v>299</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="87"/>
       <c r="J11" s="16" t="s">
         <v>300</v>
       </c>
@@ -7583,21 +7583,21 @@
     <row r="12" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="68" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="94" t="s">
         <v>303</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="25" t="s">
         <v>304</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="94" t="s">
         <v>306</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="25" t="s">
         <v>307</v>
       </c>
@@ -7614,21 +7614,21 @@
       <c r="B13" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="93" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="16" t="s">
         <v>312</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="16" t="s">
         <v>315</v>
       </c>
@@ -7643,21 +7643,21 @@
     <row r="14" spans="1:27" ht="84" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="94" t="s">
         <v>318</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="25" t="s">
         <v>319</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="94" t="s">
         <v>321</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="25" t="s">
         <v>322</v>
       </c>
@@ -7671,17 +7671,17 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -7700,23 +7700,23 @@
     </row>
     <row r="16" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7750,10 +7750,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="87"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="52" t="s">
         <v>325</v>
       </c>
@@ -7781,8 +7781,8 @@
     </row>
     <row r="19" spans="1:27" ht="108" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="53" t="s">
         <v>328</v>
       </c>
@@ -7810,8 +7810,8 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="54"/>
       <c r="E20" s="21"/>
       <c r="F20" s="16" t="s">
@@ -7835,8 +7835,8 @@
     </row>
     <row r="21" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="57"/>
       <c r="E21" s="32"/>
       <c r="F21" s="25" t="s">
@@ -7860,8 +7860,8 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="30"/>
       <c r="E22" s="21"/>
       <c r="F22" s="58"/>
@@ -7875,8 +7875,8 @@
     </row>
     <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
       <c r="F23" s="34"/>
@@ -7889,37 +7889,37 @@
       <c r="M23" s="60"/>
     </row>
     <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="77"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="36" t="s">
         <v>339</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="I25" s="71"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="36" t="s">
         <v>342</v>
       </c>
@@ -7948,10 +7948,10 @@
         <v>345</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="92"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="40" t="s">
         <v>15</v>
       </c>
@@ -7961,7 +7961,7 @@
       <c r="H27" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="92"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="39" t="s">
         <v>97</v>
       </c>
@@ -7977,20 +7977,20 @@
         <v>346</v>
       </c>
       <c r="C28" s="38"/>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="69" t="s">
         <v>347</v>
       </c>
-      <c r="E28" s="94"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="43" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="94"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="43" t="s">
         <v>100</v>
       </c>
@@ -8006,20 +8006,20 @@
         <v>101</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="94"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="93" t="s">
+      <c r="H29" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="94"/>
+      <c r="I29" s="70"/>
       <c r="J29" s="45" t="s">
         <v>15</v>
       </c>
@@ -8035,20 +8035,20 @@
         <v>103</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="94"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="94"/>
+      <c r="I30" s="70"/>
       <c r="J30" s="45" t="s">
         <v>15</v>
       </c>
@@ -8064,20 +8064,20 @@
         <v>104</v>
       </c>
       <c r="C31" s="38"/>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="94"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="95" t="s">
+      <c r="H31" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="94"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="43" t="s">
         <v>97</v>
       </c>
@@ -8093,20 +8093,20 @@
         <v>348</v>
       </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="97"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="98" t="s">
+      <c r="H32" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="97"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="50" t="s">
         <v>15</v>
       </c>
@@ -8119,17 +8119,17 @@
     </row>
     <row r="33" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="66"/>
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -8148,6 +8148,39 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="B33:L33"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -8161,39 +8194,6 @@
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8233,17 +8233,17 @@
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -8265,8 +8265,8 @@
       <c r="B3" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -8285,15 +8285,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="98" t="s">
         <v>350</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
@@ -8320,17 +8320,17 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -8349,24 +8349,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="82" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="86" t="s">
         <v>353</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="17" t="s">
         <v>354</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="I6" s="67"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="17" t="s">
         <v>357</v>
       </c>
@@ -8394,16 +8394,16 @@
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -8443,21 +8443,21 @@
       <c r="B9" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="90"/>
+      <c r="D9" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="16" t="s">
         <v>78</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="93" t="s">
         <v>363</v>
       </c>
-      <c r="I9" s="67"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="16" t="s">
         <v>364</v>
       </c>
@@ -8474,21 +8474,21 @@
       <c r="B10" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="68" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="94" t="s">
         <v>368</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="25" t="s">
         <v>369</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="94" t="s">
         <v>370</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="25" t="s">
         <v>371</v>
       </c>
@@ -8505,21 +8505,21 @@
       <c r="B11" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="93" t="s">
         <v>375</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="16" t="s">
         <v>376</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="93" t="s">
         <v>378</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="87"/>
       <c r="J11" s="16" t="s">
         <v>136</v>
       </c>
@@ -8536,21 +8536,21 @@
       <c r="B12" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="68" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="25" t="s">
         <v>382</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="94" t="s">
         <v>384</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="25" t="s">
         <v>385</v>
       </c>
@@ -8567,21 +8567,21 @@
       <c r="B13" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="16" t="s">
         <v>250</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="16" t="s">
         <v>156</v>
       </c>
@@ -8598,21 +8598,21 @@
       <c r="B14" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="94" t="s">
         <v>392</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="25" t="s">
         <v>255</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="94" t="s">
         <v>393</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="25" t="s">
         <v>164</v>
       </c>
@@ -8626,17 +8626,17 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -8655,23 +8655,23 @@
     </row>
     <row r="16" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8705,8 +8705,8 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="54"/>
       <c r="E18" s="21"/>
       <c r="F18" s="16" t="s">
@@ -8732,8 +8732,8 @@
     </row>
     <row r="19" spans="1:27" ht="36" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="57"/>
       <c r="E19" s="32"/>
       <c r="F19" s="25"/>
@@ -8757,8 +8757,8 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="30"/>
       <c r="E20" s="21"/>
       <c r="F20" s="16" t="s">
@@ -8776,8 +8776,8 @@
     </row>
     <row r="21" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="57"/>
       <c r="E21" s="32"/>
       <c r="F21" s="25" t="s">
@@ -8795,8 +8795,8 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="30"/>
       <c r="E22" s="21"/>
       <c r="F22" s="58"/>
@@ -8810,8 +8810,8 @@
     </row>
     <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
       <c r="F23" s="34"/>
@@ -8824,37 +8824,37 @@
       <c r="M23" s="60"/>
     </row>
     <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="77"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="83" t="s">
         <v>401</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="36" t="s">
         <v>402</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>403</v>
       </c>
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="I25" s="71"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="36" t="s">
         <v>405</v>
       </c>
@@ -8883,20 +8883,20 @@
         <v>96</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="92"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="91" t="s">
+      <c r="H27" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="92"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="40" t="s">
         <v>15</v>
       </c>
@@ -8912,20 +8912,20 @@
         <v>192</v>
       </c>
       <c r="C28" s="38"/>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="94"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="94"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="43" t="s">
         <v>97</v>
       </c>
@@ -8941,20 +8941,20 @@
         <v>408</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="94"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="43" t="s">
         <v>97</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="95" t="s">
+      <c r="H29" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I29" s="94"/>
+      <c r="I29" s="70"/>
       <c r="J29" s="43" t="s">
         <v>97</v>
       </c>
@@ -8970,20 +8970,20 @@
         <v>194</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="100" t="s">
+      <c r="D30" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="94"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="95" t="s">
+      <c r="H30" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="94"/>
+      <c r="I30" s="70"/>
       <c r="J30" s="43" t="s">
         <v>97</v>
       </c>
@@ -8999,20 +8999,20 @@
         <v>104</v>
       </c>
       <c r="C31" s="38"/>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="94"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="95" t="s">
+      <c r="H31" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="94"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="43" t="s">
         <v>97</v>
       </c>
@@ -9028,20 +9028,20 @@
         <v>195</v>
       </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="97"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="103" t="s">
+      <c r="H32" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="97"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="50" t="s">
         <v>15</v>
       </c>
@@ -9054,17 +9054,17 @@
     </row>
     <row r="33" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="66"/>
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -9083,6 +9083,39 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="B33:L33"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -9096,39 +9129,6 @@
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9168,17 +9168,17 @@
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -9197,11 +9197,11 @@
     </row>
     <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="95" t="s">
         <v>409</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -9220,15 +9220,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="98" t="s">
         <v>410</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
@@ -9255,17 +9255,17 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -9284,24 +9284,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="82" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="86" t="s">
         <v>413</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="17" t="s">
         <v>414</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="86" t="s">
         <v>416</v>
       </c>
-      <c r="I6" s="67"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="17" t="s">
         <v>417</v>
       </c>
@@ -9329,22 +9329,22 @@
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="88" t="s">
         <v>421</v>
       </c>
-      <c r="I7" s="65"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="19" t="s">
         <v>19</v>
       </c>
@@ -9390,21 +9390,21 @@
       <c r="B9" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="90"/>
+      <c r="D9" s="93" t="s">
         <v>423</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="16" t="s">
         <v>424</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="93" t="s">
         <v>426</v>
       </c>
-      <c r="I9" s="67"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="16" t="s">
         <v>427</v>
       </c>
@@ -9421,21 +9421,21 @@
       <c r="B10" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="68" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="94" t="s">
         <v>431</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="25" t="s">
         <v>432</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="94" t="s">
         <v>434</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="25" t="s">
         <v>435</v>
       </c>
@@ -9452,21 +9452,21 @@
       <c r="B11" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="93" t="s">
         <v>439</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="16" t="s">
         <v>332</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="93" t="s">
         <v>441</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="87"/>
       <c r="J11" s="16" t="s">
         <v>442</v>
       </c>
@@ -9483,19 +9483,19 @@
       <c r="B12" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="65"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="25" t="s">
         <v>335</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="94" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="25" t="s">
         <v>448</v>
       </c>
@@ -9512,21 +9512,21 @@
       <c r="B13" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="93" t="s">
         <v>452</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="93" t="s">
         <v>454</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="16" t="s">
         <v>455</v>
       </c>
@@ -9543,21 +9543,21 @@
       <c r="B14" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="94" t="s">
         <v>459</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="25" t="s">
         <v>147</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="94" t="s">
         <v>461</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="25" t="s">
         <v>462</v>
       </c>
@@ -9571,17 +9571,17 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -9600,23 +9600,23 @@
     </row>
     <row r="16" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9650,10 +9650,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="87"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="52" t="s">
         <v>465</v>
       </c>
@@ -9681,8 +9681,8 @@
     </row>
     <row r="19" spans="1:27" ht="84" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="53" t="s">
         <v>467</v>
       </c>
@@ -9708,10 +9708,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="87"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="52" t="s">
         <v>469</v>
       </c>
@@ -9731,8 +9731,8 @@
     </row>
     <row r="21" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="53" t="s">
         <v>471</v>
       </c>
@@ -9752,10 +9752,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="87"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="52" t="s">
         <v>473</v>
       </c>
@@ -9771,8 +9771,8 @@
     </row>
     <row r="23" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="53" t="s">
         <v>474</v>
       </c>
@@ -9788,10 +9788,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="87"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="52" t="s">
         <v>475</v>
       </c>
@@ -9807,8 +9807,8 @@
     </row>
     <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="88"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="53" t="s">
         <v>476</v>
       </c>
@@ -9824,10 +9824,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="103" t="s">
         <v>477</v>
       </c>
-      <c r="C26" s="87"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="52" t="s">
         <v>478</v>
       </c>
@@ -9843,8 +9843,8 @@
     </row>
     <row r="27" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="88"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="53" t="s">
         <v>479</v>
       </c>
@@ -9859,37 +9859,37 @@
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="77"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="83" t="s">
         <v>480</v>
       </c>
-      <c r="E29" s="71"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="36" t="s">
         <v>481</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="H29" s="90" t="s">
+      <c r="H29" s="84" t="s">
         <v>483</v>
       </c>
-      <c r="I29" s="71"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="36" t="s">
         <v>484</v>
       </c>
@@ -9918,10 +9918,10 @@
         <v>345</v>
       </c>
       <c r="C31" s="38"/>
-      <c r="D31" s="99" t="s">
+      <c r="D31" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="92"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="40" t="s">
         <v>15</v>
       </c>
@@ -9931,7 +9931,7 @@
       <c r="H31" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="92"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="39" t="s">
         <v>97</v>
       </c>
@@ -9947,20 +9947,20 @@
         <v>98</v>
       </c>
       <c r="C32" s="38"/>
-      <c r="D32" s="100" t="s">
+      <c r="D32" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="94"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="43" t="s">
         <v>99</v>
       </c>
       <c r="G32" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="95" t="s">
+      <c r="H32" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="94"/>
+      <c r="I32" s="70"/>
       <c r="J32" s="43" t="s">
         <v>100</v>
       </c>
@@ -9976,20 +9976,20 @@
         <v>101</v>
       </c>
       <c r="C33" s="38"/>
-      <c r="D33" s="100" t="s">
+      <c r="D33" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="94"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="93" t="s">
+      <c r="H33" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="94"/>
+      <c r="I33" s="70"/>
       <c r="J33" s="45" t="s">
         <v>15</v>
       </c>
@@ -10005,20 +10005,20 @@
         <v>103</v>
       </c>
       <c r="C34" s="38"/>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="94"/>
+      <c r="E34" s="70"/>
       <c r="F34" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="93" t="s">
+      <c r="H34" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="94"/>
+      <c r="I34" s="70"/>
       <c r="J34" s="45" t="s">
         <v>15</v>
       </c>
@@ -10034,20 +10034,20 @@
         <v>487</v>
       </c>
       <c r="C35" s="38"/>
-      <c r="D35" s="100" t="s">
+      <c r="D35" s="69" t="s">
         <v>488</v>
       </c>
-      <c r="E35" s="94"/>
+      <c r="E35" s="70"/>
       <c r="F35" s="43" t="s">
         <v>102</v>
       </c>
       <c r="G35" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="H35" s="95" t="s">
+      <c r="H35" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="I35" s="94"/>
+      <c r="I35" s="70"/>
       <c r="J35" s="43" t="s">
         <v>102</v>
       </c>
@@ -10063,20 +10063,20 @@
         <v>105</v>
       </c>
       <c r="C36" s="48"/>
-      <c r="D36" s="96" t="s">
+      <c r="D36" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="97"/>
+      <c r="E36" s="76"/>
       <c r="F36" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G36" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="98" t="s">
+      <c r="H36" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="97"/>
+      <c r="I36" s="76"/>
       <c r="J36" s="49" t="s">
         <v>97</v>
       </c>
@@ -10089,17 +10089,17 @@
     </row>
     <row r="37" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="71"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="66"/>
       <c r="M37" s="5"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -10118,27 +10118,17 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
@@ -10152,20 +10142,30 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/xcom_perks/WOTC APA Class Pack.xlsx
+++ b/docs/xcom_perks/WOTC APA Class Pack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B8D8E3-C523-4876-BE7C-B7E0967B3D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A6ED5C-EBEF-4737-BB6C-FDA52D61FB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assault Infantry" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Is there a way to make a rocket launcher I think it would be perfect for this. Unit pulls out secret rocket launcher and bombards area any destructible items would be demolished it would do damage with a shred effect and can have a chance to spread fire.
 	-Anonymous
@@ -259,6 +260,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 1 </t>
     </r>
@@ -268,6 +270,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sqd.)</t>
     </r>
@@ -278,6 +281,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 2 </t>
     </r>
@@ -287,6 +291,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpl.)</t>
     </r>
@@ -297,6 +302,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 3 </t>
     </r>
@@ -306,6 +312,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sgt.)</t>
     </r>
@@ -316,6 +323,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 4 </t>
     </r>
@@ -325,6 +333,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Ltn.)</t>
     </r>
@@ -335,6 +344,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 5 </t>
     </r>
@@ -344,6 +354,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpt.)</t>
     </r>
@@ -354,6 +365,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 6 </t>
     </r>
@@ -363,6 +375,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Maj.)</t>
     </r>
@@ -373,6 +386,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 7 </t>
     </r>
@@ -382,6 +396,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Col.)</t>
     </r>
@@ -447,6 +462,7 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Get one Half-Movement action point (50% Mobility Penalty) refunded after attacking a stunned or disoriented target </t>
     </r>
@@ -457,6 +473,7 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>within CQB range</t>
     </r>
@@ -466,6 +483,7 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -486,6 +504,7 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Once per turn, get one non-movement action point refunded after killing a stunned or disoriented enemy </t>
     </r>
@@ -496,6 +515,7 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>within CQB range</t>
     </r>
@@ -505,6 +525,7 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -672,6 +693,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 1 </t>
     </r>
@@ -681,6 +703,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sqd.)</t>
     </r>
@@ -691,6 +714,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 2 </t>
     </r>
@@ -700,6 +724,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpl.)</t>
     </r>
@@ -710,6 +735,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 3 </t>
     </r>
@@ -719,6 +745,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sgt.)</t>
     </r>
@@ -729,6 +756,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 4 </t>
     </r>
@@ -738,6 +766,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Ltn.)</t>
     </r>
@@ -748,6 +777,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 5 </t>
     </r>
@@ -757,6 +787,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpt.)</t>
     </r>
@@ -767,6 +798,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 6 </t>
     </r>
@@ -776,6 +808,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Maj.)</t>
     </r>
@@ -786,6 +819,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 7 </t>
     </r>
@@ -795,6 +829,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Col.)</t>
     </r>
@@ -848,6 +883,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 1 </t>
     </r>
@@ -857,6 +893,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sqd.)</t>
     </r>
@@ -867,6 +904,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 2 </t>
     </r>
@@ -876,6 +914,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpl.)</t>
     </r>
@@ -886,6 +925,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 3 </t>
     </r>
@@ -895,6 +935,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sgt.)</t>
     </r>
@@ -905,6 +946,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 4 </t>
     </r>
@@ -914,6 +956,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Ltn.)</t>
     </r>
@@ -924,6 +967,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 5 </t>
     </r>
@@ -933,6 +977,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpt.)</t>
     </r>
@@ -943,6 +988,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 6 </t>
     </r>
@@ -952,6 +998,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Maj.)</t>
     </r>
@@ -962,6 +1009,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 7 </t>
     </r>
@@ -971,6 +1019,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Col.)</t>
     </r>
@@ -1185,6 +1234,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 1 </t>
     </r>
@@ -1194,6 +1244,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sqd.)</t>
     </r>
@@ -1204,6 +1255,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 2 </t>
     </r>
@@ -1213,6 +1265,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpl.)</t>
     </r>
@@ -1223,6 +1276,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 3 </t>
     </r>
@@ -1232,6 +1286,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sgt.)</t>
     </r>
@@ -1242,6 +1297,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 4 </t>
     </r>
@@ -1251,6 +1307,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Ltn.)</t>
     </r>
@@ -1261,6 +1318,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 5 </t>
     </r>
@@ -1270,6 +1328,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpt.)</t>
     </r>
@@ -1280,6 +1339,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 6 </t>
     </r>
@@ -1289,6 +1349,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Maj.)</t>
     </r>
@@ -1299,6 +1360,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 7 </t>
     </r>
@@ -1308,6 +1370,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Col.)</t>
     </r>
@@ -1346,6 +1409,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 1 </t>
     </r>
@@ -1355,6 +1419,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sqd.)</t>
     </r>
@@ -1365,6 +1430,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 2 </t>
     </r>
@@ -1374,6 +1440,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpl.)</t>
     </r>
@@ -1384,6 +1451,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 3 </t>
     </r>
@@ -1393,6 +1461,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sgt.)</t>
     </r>
@@ -1403,6 +1472,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 4 </t>
     </r>
@@ -1412,6 +1482,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Ltn.)</t>
     </r>
@@ -1422,6 +1493,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 5 </t>
     </r>
@@ -1431,6 +1503,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpt.)</t>
     </r>
@@ -1441,6 +1514,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 6 </t>
     </r>
@@ -1450,6 +1524,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Maj.)</t>
     </r>
@@ -1460,6 +1535,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 7 </t>
     </r>
@@ -1469,6 +1545,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Col.)</t>
     </r>
@@ -1638,6 +1715,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 1 </t>
     </r>
@@ -1647,6 +1725,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sqd.)</t>
     </r>
@@ -1657,6 +1736,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 2 </t>
     </r>
@@ -1666,6 +1746,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpl.)</t>
     </r>
@@ -1676,6 +1757,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 3 </t>
     </r>
@@ -1685,6 +1767,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sgt.)</t>
     </r>
@@ -1695,6 +1778,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 4 </t>
     </r>
@@ -1704,6 +1788,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Ltn.)</t>
     </r>
@@ -1714,6 +1799,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 5 </t>
     </r>
@@ -1723,6 +1809,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpt.)</t>
     </r>
@@ -1733,6 +1820,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 6 </t>
     </r>
@@ -1742,6 +1830,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Maj.)</t>
     </r>
@@ -1752,6 +1841,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 7 </t>
     </r>
@@ -1761,6 +1851,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Col.)</t>
     </r>
@@ -1785,6 +1876,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 1 </t>
     </r>
@@ -1794,6 +1886,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sqd.)</t>
     </r>
@@ -1804,6 +1897,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 2 </t>
     </r>
@@ -1813,6 +1907,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpl.)</t>
     </r>
@@ -1823,6 +1918,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 3 </t>
     </r>
@@ -1832,6 +1928,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sgt.)</t>
     </r>
@@ -1842,6 +1939,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 4 </t>
     </r>
@@ -1851,6 +1949,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Ltn.)</t>
     </r>
@@ -1861,6 +1960,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 5 </t>
     </r>
@@ -1870,6 +1970,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpt.)</t>
     </r>
@@ -1880,6 +1981,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 6 </t>
     </r>
@@ -1889,6 +1991,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Maj.)</t>
     </r>
@@ -1899,6 +2002,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 7 </t>
     </r>
@@ -1908,6 +2012,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Col.)</t>
     </r>
@@ -2105,6 +2210,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 1 </t>
     </r>
@@ -2114,6 +2220,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sqd.)</t>
     </r>
@@ -2124,6 +2231,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 2 </t>
     </r>
@@ -2133,6 +2241,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpl.)</t>
     </r>
@@ -2143,6 +2252,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 3 </t>
     </r>
@@ -2152,6 +2262,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sgt.)</t>
     </r>
@@ -2162,6 +2273,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 4 </t>
     </r>
@@ -2171,6 +2283,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Ltn.)</t>
     </r>
@@ -2181,6 +2294,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 5 </t>
     </r>
@@ -2190,6 +2304,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpt.)</t>
     </r>
@@ -2200,6 +2315,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 6 </t>
     </r>
@@ -2209,6 +2325,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Maj.)</t>
     </r>
@@ -2219,6 +2336,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 7 </t>
     </r>
@@ -2228,6 +2346,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Col.)</t>
     </r>
@@ -2263,6 +2382,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 1 </t>
     </r>
@@ -2272,6 +2392,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sqd.)</t>
     </r>
@@ -2282,6 +2403,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 2 </t>
     </r>
@@ -2291,6 +2413,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpl.)</t>
     </r>
@@ -2301,6 +2424,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 3 </t>
     </r>
@@ -2310,6 +2434,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sgt.)</t>
     </r>
@@ -2320,6 +2445,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 4 </t>
     </r>
@@ -2329,6 +2455,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Ltn.)</t>
     </r>
@@ -2339,6 +2466,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 5 </t>
     </r>
@@ -2348,6 +2476,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpt.)</t>
     </r>
@@ -2358,6 +2487,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 6 </t>
     </r>
@@ -2367,6 +2497,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Maj.)</t>
     </r>
@@ -2377,6 +2508,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 7 </t>
     </r>
@@ -2386,6 +2518,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Col.)</t>
     </r>
@@ -2521,6 +2654,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 1 </t>
     </r>
@@ -2530,6 +2664,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sqd.)</t>
     </r>
@@ -2540,6 +2675,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 2 </t>
     </r>
@@ -2549,6 +2685,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpl.)</t>
     </r>
@@ -2559,6 +2696,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 3 </t>
     </r>
@@ -2568,6 +2706,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sgt.)</t>
     </r>
@@ -2578,6 +2717,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 4 </t>
     </r>
@@ -2587,6 +2727,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Ltn.)</t>
     </r>
@@ -2597,6 +2738,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 5 </t>
     </r>
@@ -2606,6 +2748,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpt.)</t>
     </r>
@@ -2616,6 +2759,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 6 </t>
     </r>
@@ -2625,6 +2769,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Maj.)</t>
     </r>
@@ -2635,6 +2780,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 7 </t>
     </r>
@@ -2644,6 +2790,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Col.)</t>
     </r>
@@ -2664,6 +2811,7 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Bullpup
 </t>
@@ -2675,6 +2823,7 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Assault Rifle (</t>
     </r>
@@ -2686,6 +2835,7 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>*Requires Ability*</t>
     </r>
@@ -2696,6 +2846,7 @@
         <sz val="9"/>
         <color rgb="FF434343"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2709,6 +2860,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 1 </t>
     </r>
@@ -2718,6 +2870,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sqd.)</t>
     </r>
@@ -2728,6 +2881,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 2 </t>
     </r>
@@ -2737,6 +2891,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpl.)</t>
     </r>
@@ -2747,6 +2902,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 3 </t>
     </r>
@@ -2756,6 +2912,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sgt.)</t>
     </r>
@@ -2766,6 +2923,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 4 </t>
     </r>
@@ -2775,6 +2933,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Ltn.)</t>
     </r>
@@ -2785,6 +2944,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 5 </t>
     </r>
@@ -2794,6 +2954,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpt.)</t>
     </r>
@@ -2804,6 +2965,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 6 </t>
     </r>
@@ -2813,6 +2975,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Maj.)</t>
     </r>
@@ -2823,6 +2986,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 7 </t>
     </r>
@@ -2832,6 +2996,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Col.)</t>
     </r>
@@ -3023,6 +3188,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 1 </t>
     </r>
@@ -3032,6 +3198,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sqd.)</t>
     </r>
@@ -3042,6 +3209,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 2 </t>
     </r>
@@ -3051,6 +3219,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpl.)</t>
     </r>
@@ -3061,6 +3230,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 3 </t>
     </r>
@@ -3070,6 +3240,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Sgt.)</t>
     </r>
@@ -3080,6 +3251,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 4 </t>
     </r>
@@ -3089,6 +3261,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Ltn.)</t>
     </r>
@@ -3099,6 +3272,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 5 </t>
     </r>
@@ -3108,6 +3282,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Cpt.)</t>
     </r>
@@ -3118,6 +3293,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 6 </t>
     </r>
@@ -3127,6 +3303,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Maj.)</t>
     </r>
@@ -3137,6 +3314,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Rank 7 </t>
     </r>
@@ -3146,6 +3324,7 @@
         <sz val="9"/>
         <color rgb="FF666666"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Col.)</t>
     </r>
@@ -3161,7 +3340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3170,6 +3349,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3177,15 +3357,18 @@
       <sz val="9"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="6"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3194,11 +3377,13 @@
       <sz val="6"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="26"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3207,11 +3392,13 @@
       <sz val="9"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3220,6 +3407,7 @@
       <sz val="9"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3228,16 +3416,19 @@
       <sz val="9"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3246,11 +3437,13 @@
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3259,12 +3452,14 @@
       <sz val="9"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3273,6 +3468,7 @@
       <sz val="9"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3281,17 +3477,20 @@
       <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="25"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <strike/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3299,11 +3498,13 @@
       <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3312,6 +3513,13 @@
       <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3937,11 +4145,63 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3969,63 +4229,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4376,7 +4584,9 @@
   </sheetPr>
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4402,17 +4612,17 @@
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -4431,11 +4641,11 @@
     </row>
     <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -4454,15 +4664,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
@@ -4489,17 +4699,17 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -4518,24 +4728,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="86" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="87"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
@@ -4563,22 +4773,22 @@
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="88" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="89"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="89"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="19" t="s">
         <v>19</v>
       </c>
@@ -4624,21 +4834,21 @@
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="93" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="16" t="s">
         <v>27</v>
       </c>
@@ -4655,21 +4865,21 @@
       <c r="B10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="94" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="89"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="25" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="89"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="25" t="s">
         <v>35</v>
       </c>
@@ -4686,21 +4896,21 @@
       <c r="B11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="93" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="87"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="16" t="s">
         <v>43</v>
       </c>
@@ -4717,21 +4927,21 @@
       <c r="B12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="89"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="25" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="89"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="25" t="s">
         <v>51</v>
       </c>
@@ -4748,21 +4958,21 @@
       <c r="B13" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="93" t="s">
+      <c r="C13" s="85"/>
+      <c r="D13" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="87"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="16" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="16" t="s">
         <v>59</v>
       </c>
@@ -4779,21 +4989,21 @@
       <c r="B14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="94" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="89"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="25" t="s">
         <v>67</v>
       </c>
@@ -4807,17 +5017,17 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -4836,23 +5046,23 @@
     </row>
     <row r="16" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="85" t="s">
+      <c r="J16" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="65"/>
-      <c r="L16" s="66"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4886,8 +5096,8 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="30"/>
       <c r="E18" s="21"/>
       <c r="F18" s="16" t="s">
@@ -4913,8 +5123,8 @@
     </row>
     <row r="19" spans="1:27" ht="120" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="25" t="s">
@@ -4938,8 +5148,8 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="30"/>
       <c r="E20" s="21"/>
       <c r="F20" s="16" t="s">
@@ -4957,8 +5167,8 @@
     </row>
     <row r="21" spans="1:27" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
       <c r="F21" s="25" t="s">
@@ -4976,8 +5186,8 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="30"/>
       <c r="E22" s="21"/>
       <c r="F22" s="33"/>
@@ -4991,8 +5201,8 @@
     </row>
     <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
       <c r="F23" s="34"/>
@@ -5006,17 +5216,17 @@
     </row>
     <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
       <c r="M24" s="15"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
@@ -5038,20 +5248,20 @@
         <v>88</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="66"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="36" t="s">
         <v>90</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="66"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="36" t="s">
         <v>93</v>
       </c>
@@ -5096,20 +5306,20 @@
         <v>96</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="68"/>
+      <c r="I27" s="92"/>
       <c r="J27" s="40" t="s">
         <v>15</v>
       </c>
@@ -5125,20 +5335,20 @@
         <v>98</v>
       </c>
       <c r="C28" s="38"/>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="70"/>
+      <c r="E28" s="94"/>
       <c r="F28" s="43" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H28" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="70"/>
+      <c r="I28" s="94"/>
       <c r="J28" s="43" t="s">
         <v>100</v>
       </c>
@@ -5154,20 +5364,20 @@
         <v>101</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="70"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="70"/>
+      <c r="I29" s="94"/>
       <c r="J29" s="45" t="s">
         <v>15</v>
       </c>
@@ -5183,20 +5393,20 @@
         <v>103</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="70"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="72" t="s">
+      <c r="H30" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="70"/>
+      <c r="I30" s="94"/>
       <c r="J30" s="45" t="s">
         <v>15</v>
       </c>
@@ -5212,20 +5422,20 @@
         <v>104</v>
       </c>
       <c r="C31" s="38"/>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="70"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="71" t="s">
+      <c r="H31" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="70"/>
+      <c r="I31" s="94"/>
       <c r="J31" s="43" t="s">
         <v>97</v>
       </c>
@@ -5241,20 +5451,20 @@
         <v>105</v>
       </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="76"/>
+      <c r="E32" s="100"/>
       <c r="F32" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="77" t="s">
+      <c r="H32" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="76"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="49" t="s">
         <v>97</v>
       </c>
@@ -5267,17 +5477,17 @@
     </row>
     <row r="33" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -5296,17 +5506,25 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
@@ -5323,25 +5541,17 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5356,7 +5566,7 @@
   </sheetPr>
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5382,17 +5592,17 @@
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -5411,11 +5621,11 @@
     </row>
     <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -5434,15 +5644,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
@@ -5469,17 +5679,17 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -5498,24 +5708,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="86" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="87"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="17" t="s">
         <v>111</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="17" t="s">
         <v>114</v>
       </c>
@@ -5543,22 +5753,22 @@
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="88" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="89"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="89"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="19" t="s">
         <v>18</v>
       </c>
@@ -5604,21 +5814,21 @@
       <c r="B9" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="93" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="16" t="s">
         <v>120</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="16" t="s">
         <v>123</v>
       </c>
@@ -5635,21 +5845,21 @@
       <c r="B10" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="94" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="89"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="25" t="s">
         <v>128</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="89"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="25" t="s">
         <v>131</v>
       </c>
@@ -5666,21 +5876,21 @@
       <c r="B11" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="93" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16" t="s">
         <v>136</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="87"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="16" t="s">
         <v>139</v>
       </c>
@@ -5697,21 +5907,21 @@
       <c r="B12" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="89"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="25" t="s">
         <v>144</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="89"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="25" t="s">
         <v>147</v>
       </c>
@@ -5728,21 +5938,21 @@
       <c r="B13" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="93" t="s">
+      <c r="C13" s="85"/>
+      <c r="D13" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="87"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="16" t="s">
         <v>152</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="16" t="s">
         <v>155</v>
       </c>
@@ -5759,21 +5969,21 @@
       <c r="B14" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="94" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="25" t="s">
         <v>160</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="I14" s="89"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="25" t="s">
         <v>163</v>
       </c>
@@ -5787,17 +5997,17 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -5816,23 +6026,23 @@
     </row>
     <row r="16" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="85" t="s">
+      <c r="J16" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="65"/>
-      <c r="L16" s="66"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5866,10 +6076,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="52" t="s">
         <v>167</v>
       </c>
@@ -5897,8 +6107,8 @@
     </row>
     <row r="19" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="53" t="s">
         <v>173</v>
       </c>
@@ -5918,8 +6128,8 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="54"/>
       <c r="E20" s="21"/>
       <c r="F20" s="16" t="s">
@@ -5941,8 +6151,8 @@
     </row>
     <row r="21" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="57"/>
       <c r="E21" s="32"/>
       <c r="F21" s="25" t="s">
@@ -5964,8 +6174,8 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="30"/>
       <c r="E22" s="21"/>
       <c r="F22" s="58"/>
@@ -5979,8 +6189,8 @@
     </row>
     <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
       <c r="F23" s="34"/>
@@ -5993,37 +6203,37 @@
       <c r="M23" s="60"/>
     </row>
     <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="82"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="66"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="36" t="s">
         <v>185</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="I25" s="66"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="36" t="s">
         <v>188</v>
       </c>
@@ -6052,20 +6262,20 @@
         <v>191</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="68"/>
+      <c r="I27" s="92"/>
       <c r="J27" s="39" t="s">
         <v>97</v>
       </c>
@@ -6081,20 +6291,20 @@
         <v>192</v>
       </c>
       <c r="C28" s="38"/>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="70"/>
+      <c r="E28" s="94"/>
       <c r="F28" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H28" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="70"/>
+      <c r="I28" s="94"/>
       <c r="J28" s="43" t="s">
         <v>97</v>
       </c>
@@ -6110,20 +6320,20 @@
         <v>193</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="70"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="43" t="s">
         <v>99</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="71" t="s">
+      <c r="H29" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="70"/>
+      <c r="I29" s="94"/>
       <c r="J29" s="43" t="s">
         <v>97</v>
       </c>
@@ -6139,20 +6349,20 @@
         <v>194</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="70"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="71" t="s">
+      <c r="H30" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="70"/>
+      <c r="I30" s="94"/>
       <c r="J30" s="43" t="s">
         <v>97</v>
       </c>
@@ -6168,20 +6378,20 @@
         <v>104</v>
       </c>
       <c r="C31" s="38"/>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="70"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="71" t="s">
+      <c r="H31" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="70"/>
+      <c r="I31" s="94"/>
       <c r="J31" s="43" t="s">
         <v>97</v>
       </c>
@@ -6197,20 +6407,20 @@
         <v>195</v>
       </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="76"/>
+      <c r="E32" s="100"/>
       <c r="F32" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="102" t="s">
+      <c r="H32" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="76"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="50" t="s">
         <v>15</v>
       </c>
@@ -6223,17 +6433,17 @@
     </row>
     <row r="33" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -6252,17 +6462,25 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
@@ -6279,25 +6497,17 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6337,17 +6547,17 @@
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -6369,8 +6579,8 @@
       <c r="B3" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -6389,15 +6599,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
@@ -6424,17 +6634,17 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -6453,24 +6663,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="86" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="87"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="17" t="s">
         <v>201</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="17" t="s">
         <v>204</v>
       </c>
@@ -6498,16 +6708,16 @@
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="88" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="89"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -6547,21 +6757,21 @@
       <c r="B9" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="93" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="16" t="s">
         <v>169</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="16" t="s">
         <v>170</v>
       </c>
@@ -6576,21 +6786,21 @@
     <row r="10" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="94" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="89"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="25" t="s">
         <v>212</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="89"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="25" t="s">
         <v>174</v>
       </c>
@@ -6607,21 +6817,21 @@
       <c r="B11" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="93" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16" t="s">
         <v>217</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="87"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="16" t="s">
         <v>220</v>
       </c>
@@ -6636,21 +6846,21 @@
     <row r="12" spans="1:27" ht="168" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="89"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="25" t="s">
         <v>224</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="I12" s="89"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="25" t="s">
         <v>227</v>
       </c>
@@ -6667,21 +6877,21 @@
       <c r="B13" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="93" t="s">
+      <c r="C13" s="85"/>
+      <c r="D13" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="87"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="16" t="s">
         <v>232</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="16" t="s">
         <v>235</v>
       </c>
@@ -6696,21 +6906,21 @@
     <row r="14" spans="1:27" ht="108" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="94" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="25" t="s">
         <v>239</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="I14" s="89"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="25" t="s">
         <v>242</v>
       </c>
@@ -6724,17 +6934,17 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -6753,23 +6963,23 @@
     </row>
     <row r="16" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="85" t="s">
+      <c r="J16" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="65"/>
-      <c r="L16" s="66"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6803,10 +7013,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="52" t="s">
         <v>246</v>
       </c>
@@ -6834,8 +7044,8 @@
     </row>
     <row r="19" spans="1:27" ht="84" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="53" t="s">
         <v>251</v>
       </c>
@@ -6863,8 +7073,8 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="54"/>
       <c r="E20" s="21"/>
       <c r="F20" s="56" t="s">
@@ -6880,8 +7090,8 @@
     </row>
     <row r="21" spans="1:27" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="57"/>
       <c r="E21" s="32"/>
       <c r="F21" s="25" t="s">
@@ -6897,8 +7107,8 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="30"/>
       <c r="E22" s="21"/>
       <c r="F22" s="58"/>
@@ -6912,8 +7122,8 @@
     </row>
     <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
       <c r="F23" s="34"/>
@@ -6926,37 +7136,37 @@
       <c r="M23" s="60"/>
     </row>
     <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="82"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="66"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="36" t="s">
         <v>259</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="I25" s="66"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="36" t="s">
         <v>262</v>
       </c>
@@ -6985,20 +7195,20 @@
         <v>191</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="68"/>
+      <c r="I27" s="92"/>
       <c r="J27" s="39" t="s">
         <v>97</v>
       </c>
@@ -7014,20 +7224,20 @@
         <v>98</v>
       </c>
       <c r="C28" s="38"/>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="70"/>
+      <c r="E28" s="94"/>
       <c r="F28" s="43" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H28" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="70"/>
+      <c r="I28" s="94"/>
       <c r="J28" s="43" t="s">
         <v>100</v>
       </c>
@@ -7043,20 +7253,20 @@
         <v>101</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="70"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="70"/>
+      <c r="I29" s="94"/>
       <c r="J29" s="45" t="s">
         <v>15</v>
       </c>
@@ -7072,20 +7282,20 @@
         <v>103</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="70"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="72" t="s">
+      <c r="H30" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="70"/>
+      <c r="I30" s="94"/>
       <c r="J30" s="45" t="s">
         <v>15</v>
       </c>
@@ -7101,20 +7311,20 @@
         <v>104</v>
       </c>
       <c r="C31" s="38"/>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="70"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="71" t="s">
+      <c r="H31" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="70"/>
+      <c r="I31" s="94"/>
       <c r="J31" s="43" t="s">
         <v>97</v>
       </c>
@@ -7130,20 +7340,20 @@
         <v>105</v>
       </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="76"/>
+      <c r="E32" s="100"/>
       <c r="F32" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="77" t="s">
+      <c r="H32" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="76"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="49" t="s">
         <v>97</v>
       </c>
@@ -7156,17 +7366,17 @@
     </row>
     <row r="33" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -7185,17 +7395,25 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
@@ -7212,25 +7430,17 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7244,7 +7454,7 @@
   </sheetPr>
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -7272,17 +7482,17 @@
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -7304,8 +7514,8 @@
       <c r="B3" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -7324,15 +7534,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
@@ -7359,17 +7569,17 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -7388,24 +7598,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="86" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="87"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="17" t="s">
         <v>270</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="17" t="s">
         <v>273</v>
       </c>
@@ -7433,22 +7643,22 @@
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="88" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="89"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="19" t="s">
         <v>276</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="I7" s="89"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="19" t="s">
         <v>279</v>
       </c>
@@ -7494,21 +7704,21 @@
       <c r="B9" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="93" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="16" t="s">
         <v>282</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="16" t="s">
         <v>285</v>
       </c>
@@ -7523,21 +7733,21 @@
     <row r="10" spans="1:27" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="94" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="89"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="25" t="s">
         <v>289</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="I10" s="89"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="25" t="s">
         <v>292</v>
       </c>
@@ -7554,21 +7764,21 @@
       <c r="B11" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="93" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16" t="s">
         <v>297</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="I11" s="87"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="16" t="s">
         <v>300</v>
       </c>
@@ -7583,21 +7793,21 @@
     <row r="12" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="E12" s="89"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="25" t="s">
         <v>304</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="I12" s="89"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="25" t="s">
         <v>307</v>
       </c>
@@ -7614,21 +7824,21 @@
       <c r="B13" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="93" t="s">
+      <c r="C13" s="85"/>
+      <c r="D13" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="87"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="16" t="s">
         <v>312</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="16" t="s">
         <v>315</v>
       </c>
@@ -7643,21 +7853,21 @@
     <row r="14" spans="1:27" ht="84" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="94" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="25" t="s">
         <v>319</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="I14" s="89"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="25" t="s">
         <v>322</v>
       </c>
@@ -7671,17 +7881,17 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -7700,23 +7910,23 @@
     </row>
     <row r="16" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="85" t="s">
+      <c r="J16" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="65"/>
-      <c r="L16" s="66"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7750,10 +7960,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="52" t="s">
         <v>325</v>
       </c>
@@ -7781,8 +7991,8 @@
     </row>
     <row r="19" spans="1:27" ht="108" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="53" t="s">
         <v>328</v>
       </c>
@@ -7810,8 +8020,8 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="54"/>
       <c r="E20" s="21"/>
       <c r="F20" s="16" t="s">
@@ -7835,8 +8045,8 @@
     </row>
     <row r="21" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="57"/>
       <c r="E21" s="32"/>
       <c r="F21" s="25" t="s">
@@ -7860,8 +8070,8 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="30"/>
       <c r="E22" s="21"/>
       <c r="F22" s="58"/>
@@ -7875,8 +8085,8 @@
     </row>
     <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
       <c r="F23" s="34"/>
@@ -7889,37 +8099,37 @@
       <c r="M23" s="60"/>
     </row>
     <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="82"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="E25" s="66"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="36" t="s">
         <v>339</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="90" t="s">
         <v>341</v>
       </c>
-      <c r="I25" s="66"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="36" t="s">
         <v>342</v>
       </c>
@@ -7948,10 +8158,10 @@
         <v>345</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="40" t="s">
         <v>15</v>
       </c>
@@ -7961,7 +8171,7 @@
       <c r="H27" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="68"/>
+      <c r="I27" s="92"/>
       <c r="J27" s="39" t="s">
         <v>97</v>
       </c>
@@ -7977,20 +8187,20 @@
         <v>346</v>
       </c>
       <c r="C28" s="38"/>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="93" t="s">
         <v>347</v>
       </c>
-      <c r="E28" s="70"/>
+      <c r="E28" s="94"/>
       <c r="F28" s="43" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H28" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="70"/>
+      <c r="I28" s="94"/>
       <c r="J28" s="43" t="s">
         <v>100</v>
       </c>
@@ -8006,20 +8216,20 @@
         <v>101</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="70"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="70"/>
+      <c r="I29" s="94"/>
       <c r="J29" s="45" t="s">
         <v>15</v>
       </c>
@@ -8035,20 +8245,20 @@
         <v>103</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="70"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="72" t="s">
+      <c r="H30" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="70"/>
+      <c r="I30" s="94"/>
       <c r="J30" s="45" t="s">
         <v>15</v>
       </c>
@@ -8064,20 +8274,20 @@
         <v>104</v>
       </c>
       <c r="C31" s="38"/>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="70"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="71" t="s">
+      <c r="H31" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="70"/>
+      <c r="I31" s="94"/>
       <c r="J31" s="43" t="s">
         <v>97</v>
       </c>
@@ -8093,20 +8303,20 @@
         <v>348</v>
       </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="76"/>
+      <c r="E32" s="100"/>
       <c r="F32" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="77" t="s">
+      <c r="H32" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="76"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="50" t="s">
         <v>15</v>
       </c>
@@ -8119,17 +8329,17 @@
     </row>
     <row r="33" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -8148,17 +8358,25 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
@@ -8175,25 +8393,17 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8233,17 +8443,17 @@
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -8265,8 +8475,8 @@
       <c r="B3" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -8285,15 +8495,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="75" t="s">
         <v>350</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
@@ -8320,17 +8530,17 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -8349,24 +8559,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="86" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="81" t="s">
         <v>353</v>
       </c>
-      <c r="E6" s="87"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="17" t="s">
         <v>354</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="17" t="s">
         <v>357</v>
       </c>
@@ -8394,16 +8604,16 @@
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="88" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="89"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -8443,21 +8653,21 @@
       <c r="B9" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="93" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="16" t="s">
         <v>78</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="66" t="s">
         <v>363</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="16" t="s">
         <v>364</v>
       </c>
@@ -8474,21 +8684,21 @@
       <c r="B10" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="94" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="64" t="s">
         <v>368</v>
       </c>
-      <c r="E10" s="89"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="25" t="s">
         <v>369</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="64" t="s">
         <v>370</v>
       </c>
-      <c r="I10" s="89"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="25" t="s">
         <v>371</v>
       </c>
@@ -8505,21 +8715,21 @@
       <c r="B11" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="93" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16" t="s">
         <v>376</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="I11" s="87"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="16" t="s">
         <v>136</v>
       </c>
@@ -8536,21 +8746,21 @@
       <c r="B12" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="89"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="25" t="s">
         <v>382</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="I12" s="89"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="25" t="s">
         <v>385</v>
       </c>
@@ -8567,21 +8777,21 @@
       <c r="B13" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="93" t="s">
+      <c r="C13" s="85"/>
+      <c r="D13" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="E13" s="87"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="16" t="s">
         <v>250</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="16" t="s">
         <v>156</v>
       </c>
@@ -8598,21 +8808,21 @@
       <c r="B14" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="94" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="25" t="s">
         <v>255</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="I14" s="89"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="25" t="s">
         <v>164</v>
       </c>
@@ -8626,17 +8836,17 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -8655,23 +8865,23 @@
     </row>
     <row r="16" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="85" t="s">
+      <c r="J16" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="65"/>
-      <c r="L16" s="66"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8705,8 +8915,8 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="54"/>
       <c r="E18" s="21"/>
       <c r="F18" s="16" t="s">
@@ -8732,8 +8942,8 @@
     </row>
     <row r="19" spans="1:27" ht="36" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="57"/>
       <c r="E19" s="32"/>
       <c r="F19" s="25"/>
@@ -8757,8 +8967,8 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="30"/>
       <c r="E20" s="21"/>
       <c r="F20" s="16" t="s">
@@ -8776,8 +8986,8 @@
     </row>
     <row r="21" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="57"/>
       <c r="E21" s="32"/>
       <c r="F21" s="25" t="s">
@@ -8795,8 +9005,8 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="30"/>
       <c r="E22" s="21"/>
       <c r="F22" s="58"/>
@@ -8810,8 +9020,8 @@
     </row>
     <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
       <c r="F23" s="34"/>
@@ -8824,37 +9034,37 @@
       <c r="M23" s="60"/>
     </row>
     <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="82"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="89" t="s">
         <v>401</v>
       </c>
-      <c r="E25" s="66"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="36" t="s">
         <v>402</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>403</v>
       </c>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="90" t="s">
         <v>404</v>
       </c>
-      <c r="I25" s="66"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="36" t="s">
         <v>405</v>
       </c>
@@ -8883,20 +9093,20 @@
         <v>96</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="68"/>
+      <c r="I27" s="92"/>
       <c r="J27" s="40" t="s">
         <v>15</v>
       </c>
@@ -8912,20 +9122,20 @@
         <v>192</v>
       </c>
       <c r="C28" s="38"/>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="70"/>
+      <c r="E28" s="94"/>
       <c r="F28" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H28" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="70"/>
+      <c r="I28" s="94"/>
       <c r="J28" s="43" t="s">
         <v>97</v>
       </c>
@@ -8941,20 +9151,20 @@
         <v>408</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="70"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="43" t="s">
         <v>97</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="71" t="s">
+      <c r="H29" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="I29" s="70"/>
+      <c r="I29" s="94"/>
       <c r="J29" s="43" t="s">
         <v>97</v>
       </c>
@@ -8970,20 +9180,20 @@
         <v>194</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="70"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="71" t="s">
+      <c r="H30" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="70"/>
+      <c r="I30" s="94"/>
       <c r="J30" s="43" t="s">
         <v>97</v>
       </c>
@@ -8999,20 +9209,20 @@
         <v>104</v>
       </c>
       <c r="C31" s="38"/>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="70"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="71" t="s">
+      <c r="H31" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="70"/>
+      <c r="I31" s="94"/>
       <c r="J31" s="43" t="s">
         <v>97</v>
       </c>
@@ -9028,20 +9238,20 @@
         <v>195</v>
       </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="76"/>
+      <c r="E32" s="100"/>
       <c r="F32" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="102" t="s">
+      <c r="H32" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="76"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="50" t="s">
         <v>15</v>
       </c>
@@ -9054,17 +9264,17 @@
     </row>
     <row r="33" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -9083,17 +9293,25 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
@@ -9110,25 +9328,17 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9168,17 +9378,17 @@
     </row>
     <row r="2" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -9197,11 +9407,11 @@
     </row>
     <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="71" t="s">
         <v>409</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -9220,15 +9430,15 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="75" t="s">
         <v>410</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
@@ -9255,17 +9465,17 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -9284,24 +9494,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="86" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="81" t="s">
         <v>413</v>
       </c>
-      <c r="E6" s="87"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="17" t="s">
         <v>414</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="17" t="s">
         <v>417</v>
       </c>
@@ -9329,22 +9539,22 @@
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="88" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="89"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="82" t="s">
         <v>421</v>
       </c>
-      <c r="I7" s="89"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="19" t="s">
         <v>19</v>
       </c>
@@ -9390,21 +9600,21 @@
       <c r="B9" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="93" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="66" t="s">
         <v>423</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="16" t="s">
         <v>424</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="16" t="s">
         <v>427</v>
       </c>
@@ -9421,21 +9631,21 @@
       <c r="B10" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="94" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="E10" s="89"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="25" t="s">
         <v>432</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="I10" s="89"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="25" t="s">
         <v>435</v>
       </c>
@@ -9452,21 +9662,21 @@
       <c r="B11" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="93" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="66" t="s">
         <v>439</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="16" t="s">
         <v>332</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="66" t="s">
         <v>441</v>
       </c>
-      <c r="I11" s="87"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="16" t="s">
         <v>442</v>
       </c>
@@ -9483,19 +9693,19 @@
       <c r="B12" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="89"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="25" t="s">
         <v>335</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="89"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="25" t="s">
         <v>448</v>
       </c>
@@ -9512,21 +9722,21 @@
       <c r="B13" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="93" t="s">
+      <c r="C13" s="85"/>
+      <c r="D13" s="66" t="s">
         <v>452</v>
       </c>
-      <c r="E13" s="87"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="66" t="s">
         <v>454</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="16" t="s">
         <v>455</v>
       </c>
@@ -9543,21 +9753,21 @@
       <c r="B14" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="94" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="25" t="s">
         <v>147</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="I14" s="89"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="25" t="s">
         <v>462</v>
       </c>
@@ -9571,17 +9781,17 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
@@ -9600,23 +9810,23 @@
     </row>
     <row r="16" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="85" t="s">
+      <c r="J16" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="65"/>
-      <c r="L16" s="66"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9650,10 +9860,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="52" t="s">
         <v>465</v>
       </c>
@@ -9681,8 +9891,8 @@
     </row>
     <row r="19" spans="1:27" ht="84" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="53" t="s">
         <v>467</v>
       </c>
@@ -9708,10 +9918,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="52" t="s">
         <v>469</v>
       </c>
@@ -9731,8 +9941,8 @@
     </row>
     <row r="21" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="53" t="s">
         <v>471</v>
       </c>
@@ -9752,10 +9962,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="79"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="52" t="s">
         <v>473</v>
       </c>
@@ -9771,8 +9981,8 @@
     </row>
     <row r="23" spans="1:27" ht="72" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="53" t="s">
         <v>474</v>
       </c>
@@ -9788,10 +9998,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="79"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="52" t="s">
         <v>475</v>
       </c>
@@ -9807,8 +10017,8 @@
     </row>
     <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="53" t="s">
         <v>476</v>
       </c>
@@ -9824,10 +10034,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="102" t="s">
         <v>477</v>
       </c>
-      <c r="C26" s="79"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="52" t="s">
         <v>478</v>
       </c>
@@ -9843,8 +10053,8 @@
     </row>
     <row r="27" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="53" t="s">
         <v>479</v>
       </c>
@@ -9859,37 +10069,37 @@
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="82"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="89" t="s">
         <v>480</v>
       </c>
-      <c r="E29" s="66"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="36" t="s">
         <v>481</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="H29" s="84" t="s">
+      <c r="H29" s="90" t="s">
         <v>483</v>
       </c>
-      <c r="I29" s="66"/>
+      <c r="I29" s="70"/>
       <c r="J29" s="36" t="s">
         <v>484</v>
       </c>
@@ -9918,10 +10128,10 @@
         <v>345</v>
       </c>
       <c r="C31" s="38"/>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="68"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="40" t="s">
         <v>15</v>
       </c>
@@ -9931,7 +10141,7 @@
       <c r="H31" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="68"/>
+      <c r="I31" s="92"/>
       <c r="J31" s="39" t="s">
         <v>97</v>
       </c>
@@ -9947,20 +10157,20 @@
         <v>98</v>
       </c>
       <c r="C32" s="38"/>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="70"/>
+      <c r="E32" s="94"/>
       <c r="F32" s="43" t="s">
         <v>99</v>
       </c>
       <c r="G32" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="71" t="s">
+      <c r="H32" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="70"/>
+      <c r="I32" s="94"/>
       <c r="J32" s="43" t="s">
         <v>100</v>
       </c>
@@ -9976,20 +10186,20 @@
         <v>101</v>
       </c>
       <c r="C33" s="38"/>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="70"/>
+      <c r="E33" s="94"/>
       <c r="F33" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="70"/>
+      <c r="I33" s="94"/>
       <c r="J33" s="45" t="s">
         <v>15</v>
       </c>
@@ -10005,20 +10215,20 @@
         <v>103</v>
       </c>
       <c r="C34" s="38"/>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="70"/>
+      <c r="E34" s="94"/>
       <c r="F34" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="72" t="s">
+      <c r="H34" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="70"/>
+      <c r="I34" s="94"/>
       <c r="J34" s="45" t="s">
         <v>15</v>
       </c>
@@ -10034,20 +10244,20 @@
         <v>487</v>
       </c>
       <c r="C35" s="38"/>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="93" t="s">
         <v>488</v>
       </c>
-      <c r="E35" s="70"/>
+      <c r="E35" s="94"/>
       <c r="F35" s="43" t="s">
         <v>102</v>
       </c>
       <c r="G35" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="H35" s="71" t="s">
+      <c r="H35" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="I35" s="70"/>
+      <c r="I35" s="94"/>
       <c r="J35" s="43" t="s">
         <v>102</v>
       </c>
@@ -10063,20 +10273,20 @@
         <v>105</v>
       </c>
       <c r="C36" s="48"/>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="76"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G36" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="77" t="s">
+      <c r="H36" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="76"/>
+      <c r="I36" s="100"/>
       <c r="J36" s="49" t="s">
         <v>97</v>
       </c>
@@ -10089,17 +10299,17 @@
     </row>
     <row r="37" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="66"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
       <c r="M37" s="5"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -10118,17 +10328,27 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="B26:C27"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
@@ -10145,27 +10365,17 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
